--- a/questions.xlsx
+++ b/questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Prometheus" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Metrics</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,26 @@
   </si>
   <si>
     <t>ksonnet</t>
+  </si>
+  <si>
+    <t>Use Memory? Training? Inference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use CPU?  Training? Inference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use PV?  Training? Inference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lots of Users? Memory? CPU? PV?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lots of Models? Memory? CPU? PV?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -772,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -894,15 +914,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="47.375" customWidth="1"/>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -924,6 +945,31 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Metrics</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,41 @@
   </si>
   <si>
     <t>Lots of Models? Memory? CPU? PV?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A User A Pod A PV/Need to specify cpu/mem/gpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training &gt;&gt; Inference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. If no gpu and you specify it, it will suspend.
+2. A user -&gt; multi-model (use PV)
+3. A model -&gt; multi-inference (use the same PV)
+4. Users need to define inferences (a pod/.yaml) on their own.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You could use one user with large memory…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PV default 10GB/ Memory 1G/2G/ CPU 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If specify Memory over avail mem?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If specify CPU over avail cpu?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We should provide avail mem/cpu spec!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,12 +292,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -737,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -914,62 +955,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A10"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.375" customWidth="1"/>
-    <col min="2" max="2" width="40.125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="52.75" customWidth="1"/>
+    <col min="4" max="4" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
